--- a/resources/actions/stimuli/practice.xlsx
+++ b/resources/actions/stimuli/practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\picture-naming\resources\actions\stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\Rutvik\rutvik-picture-naming\resources\actions\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAE41D1-3845-4F21-9194-E72F58F2164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5EAD9C-6764-4A81-8DD3-85E233C0AC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="2844" windowWidth="17280" windowHeight="8880" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
+    <workbookView xWindow="1128" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{1631BE85-4D3D-4F09-8AE2-3287BF9C0372}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>task</t>
   </si>
@@ -50,12 +50,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>caída</t>
-  </si>
-  <si>
     <t>high_freq</t>
   </si>
   <si>
@@ -65,37 +59,46 @@
     <t>kiss</t>
   </si>
   <si>
-    <t>beso</t>
-  </si>
-  <si>
     <t>surf</t>
   </si>
   <si>
     <t>low_freq</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>cremallera</t>
-  </si>
-  <si>
     <t>Word</t>
   </si>
   <si>
     <t>englishWord</t>
   </si>
   <si>
-    <t>resources/pictures/act080fall.png</t>
-  </si>
-  <si>
     <t>resources/pictures/act119kiss.png</t>
   </si>
   <si>
     <t>resources/pictures/act234surf.png</t>
   </si>
   <si>
-    <t>resources/pictures/act275zip.png</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>abrir</t>
+  </si>
+  <si>
+    <t>resources/pictures/act149open.png</t>
+  </si>
+  <si>
+    <t>besar</t>
+  </si>
+  <si>
+    <t>surfear</t>
+  </si>
+  <si>
+    <t>pinch</t>
+  </si>
+  <si>
+    <t>pellizcar</t>
+  </si>
+  <si>
+    <t>resources/pictures/act156pinch.png</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -524,70 +527,70 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
